--- a/info/information.xlsx
+++ b/info/information.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/placenameday/R study/yajuan_phd/info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\yajuan_phd\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CBBC7E-53E4-B246-95E3-583571B2FED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825DEB8C-4D5D-4B13-9FF1-66056FB31ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4280" yWindow="500" windowWidth="36040" windowHeight="22300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3449,14 +3449,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>躯体虐待</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5503,12 +5495,18 @@
     <t>a为创伤组，b为对照组</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Trauma group</t>
+  </si>
+  <si>
+    <t>Control group</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5931,172 +5929,173 @@
   <dimension ref="A1:AS418"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="13.6640625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.1328125" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" style="17"/>
     <col min="7" max="7" width="13" style="17" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" style="17" customWidth="1"/>
     <col min="9" max="12" width="8.6640625" style="17"/>
     <col min="13" max="13" width="12.6640625" style="17" customWidth="1"/>
-    <col min="14" max="14" width="8.1640625" style="17" customWidth="1"/>
+    <col min="14" max="14" width="8.1328125" style="17" customWidth="1"/>
     <col min="15" max="19" width="8.6640625" style="17"/>
-    <col min="20" max="20" width="11.83203125" style="17" customWidth="1"/>
+    <col min="20" max="20" width="11.796875" style="17" customWidth="1"/>
     <col min="21" max="22" width="8.6640625" style="17"/>
     <col min="23" max="23" width="11.6640625" style="17" customWidth="1"/>
     <col min="24" max="45" width="8.6640625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="2" customFormat="1">
+    <row r="1" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>980</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>982</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>896</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>897</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>898</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>899</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>903</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>902</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>904</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>905</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>906</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>908</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>900</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>910</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>913</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>914</v>
-      </c>
       <c r="W1" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>959</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>960</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>964</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>966</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>967</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>968</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>970</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>971</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>972</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>973</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>974</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>975</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>976</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>977</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>978</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>979</v>
       </c>
-      <c r="AR1" s="2" t="s">
-        <v>980</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>981</v>
-      </c>
     </row>
-    <row r="2" spans="1:45" s="6" customFormat="1">
+    <row r="2" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>156</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>118</v>
@@ -6225,15 +6224,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:45" s="6" customFormat="1">
+    <row r="3" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>264</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>35</v>
@@ -6362,15 +6361,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:45" s="6" customFormat="1">
+    <row r="4" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>585</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>35</v>
@@ -6499,15 +6498,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:45" s="6" customFormat="1">
+    <row r="5" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>705</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D5" t="s">
         <v>35</v>
@@ -6636,15 +6635,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:45" s="6" customFormat="1">
+    <row r="6" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>874</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D6" t="s">
         <v>35</v>
@@ -6773,15 +6772,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:45" s="6" customFormat="1">
+    <row r="7" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>183</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>35</v>
@@ -6910,15 +6909,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:45" s="6" customFormat="1">
+    <row r="8" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>323</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>35</v>
@@ -7047,15 +7046,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:45" s="6" customFormat="1">
+    <row r="9" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>332</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>35</v>
@@ -7184,15 +7183,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>325</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>35</v>
@@ -7321,15 +7320,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>334</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>35</v>
@@ -7458,15 +7457,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:45">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>317</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>35</v>
@@ -7595,15 +7594,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>35</v>
@@ -7732,15 +7731,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>35</v>
@@ -7869,15 +7868,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>35</v>
@@ -8006,15 +8005,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>35</v>
@@ -8143,15 +8142,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:45">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>593</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>35</v>
@@ -8280,15 +8279,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:45">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
         <v>701</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D18" t="s">
         <v>35</v>
@@ -8417,15 +8416,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:45">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>193</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>35</v>
@@ -8554,15 +8553,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:45">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>35</v>
@@ -8691,15 +8690,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:45">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>35</v>
@@ -8828,15 +8827,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:45">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>195</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>35</v>
@@ -8965,15 +8964,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:45">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>165</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>35</v>
@@ -9102,15 +9101,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:45">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>549</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>35</v>
@@ -9239,15 +9238,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:45">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
         <v>569</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D25" t="s">
         <v>118</v>
@@ -9376,15 +9375,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:45">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
         <v>583</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>118</v>
@@ -9513,15 +9512,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:45">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>601</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>35</v>
@@ -9650,15 +9649,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:45">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
         <v>603</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>35</v>
@@ -9787,15 +9786,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:45">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
         <v>571</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>35</v>
@@ -9924,15 +9923,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:45">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
         <v>420</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>35</v>
@@ -10061,15 +10060,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:45">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
         <v>416</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>35</v>
@@ -10198,15 +10197,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:45">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
         <v>428</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>35</v>
@@ -10335,15 +10334,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:45">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
         <v>426</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>35</v>
@@ -10472,15 +10471,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:45">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
         <v>440</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>35</v>
@@ -10609,15 +10608,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:45">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
         <v>506</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D35" t="s">
         <v>35</v>
@@ -10746,15 +10745,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:45">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
         <v>191</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>35</v>
@@ -10883,15 +10882,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:45">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>35</v>
@@ -11020,15 +11019,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:45">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
         <v>426</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D38" t="s">
         <v>35</v>
@@ -11157,15 +11156,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:45">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
         <v>223</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>35</v>
@@ -11294,15 +11293,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:45">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
         <v>303</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>35</v>
@@ -11431,15 +11430,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:45">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>118</v>
@@ -11568,15 +11567,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:45">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
         <v>179</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>35</v>
@@ -11705,15 +11704,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:45">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
         <v>199</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>35</v>
@@ -11842,15 +11841,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:45">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A44" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>35</v>
@@ -11979,15 +11978,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:45">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
         <v>173</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>35</v>
@@ -12116,15 +12115,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:45">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
         <v>181</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>35</v>
@@ -12253,15 +12252,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:45">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
         <v>187</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>35</v>
@@ -12390,15 +12389,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:45">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
         <v>201</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>35</v>
@@ -12527,15 +12526,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:45">
+    <row r="49" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
         <v>207</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>35</v>
@@ -12664,15 +12663,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:45">
+    <row r="50" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
         <v>213</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>35</v>
@@ -12801,15 +12800,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:45">
+    <row r="51" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
         <v>128</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>35</v>
@@ -12938,15 +12937,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:45">
+    <row r="52" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>35</v>
@@ -13075,15 +13074,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:45">
+    <row r="53" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
         <v>136</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>35</v>
@@ -13212,15 +13211,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:45">
+    <row r="54" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>35</v>
@@ -13349,15 +13348,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:45">
+    <row r="55" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>35</v>
@@ -13486,15 +13485,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:45">
+    <row r="56" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>35</v>
@@ -13623,15 +13622,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:45">
+    <row r="57" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
         <v>169</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>35</v>
@@ -13760,15 +13759,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:45">
+    <row r="58" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A58" s="3" t="s">
         <v>301</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>35</v>
@@ -13897,15 +13896,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:45">
+    <row r="59" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A59" s="3" t="s">
         <v>360</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>35</v>
@@ -14034,15 +14033,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:45">
+    <row r="60" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
         <v>395</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>35</v>
@@ -14171,15 +14170,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:45">
+    <row r="61" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
         <v>402</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>35</v>
@@ -14308,15 +14307,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:45">
+    <row r="62" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A62" s="3" t="s">
         <v>404</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>35</v>
@@ -14445,15 +14444,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:45">
+    <row r="63" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A63" s="3" t="s">
         <v>406</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>35</v>
@@ -14582,15 +14581,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="1:45">
+    <row r="64" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
         <v>450</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>35</v>
@@ -14719,15 +14718,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:45">
+    <row r="65" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
         <v>454</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>35</v>
@@ -14856,15 +14855,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:45">
+    <row r="66" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A66" s="3" t="s">
         <v>498</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D66" t="s">
         <v>35</v>
@@ -14993,15 +14992,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:45">
+    <row r="67" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A67" s="3" t="s">
         <v>508</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D67" t="s">
         <v>35</v>
@@ -15130,15 +15129,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:45">
+    <row r="68" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A68" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>35</v>
@@ -15267,15 +15266,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:45">
+    <row r="69" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A69" s="3" t="s">
         <v>154</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>35</v>
@@ -15404,15 +15403,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:45">
+    <row r="70" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
         <v>225</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>35</v>
@@ -15541,15 +15540,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:45">
+    <row r="71" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A71" s="3" t="s">
         <v>327</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>35</v>
@@ -15678,15 +15677,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:45">
+    <row r="72" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
         <v>342</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>35</v>
@@ -15815,15 +15814,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:45">
+    <row r="73" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
         <v>410</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>35</v>
@@ -15952,15 +15951,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:45">
+    <row r="74" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
         <v>484</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D74" t="s">
         <v>35</v>
@@ -16089,15 +16088,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:45">
+    <row r="75" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A75" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>35</v>
@@ -16226,15 +16225,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="76" spans="1:45">
+    <row r="76" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A76" s="3" t="s">
         <v>217</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>35</v>
@@ -16363,15 +16362,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="77" spans="1:45">
+    <row r="77" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
         <v>215</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>35</v>
@@ -16500,15 +16499,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:45">
+    <row r="78" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
         <v>249</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>35</v>
@@ -16637,15 +16636,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="1:45">
+    <row r="79" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
         <v>251</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>35</v>
@@ -16774,15 +16773,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:45">
+    <row r="80" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A80" s="3" t="s">
         <v>241</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>35</v>
@@ -16911,15 +16910,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="81" spans="1:45">
+    <row r="81" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A81" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>35</v>
@@ -17048,15 +17047,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="82" spans="1:45">
+    <row r="82" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A82" s="3" t="s">
         <v>140</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>35</v>
@@ -17185,15 +17184,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="83" spans="1:45">
+    <row r="83" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A83" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>35</v>
@@ -17322,15 +17321,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="1:45">
+    <row r="84" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A84" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>35</v>
@@ -17459,15 +17458,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="1:45">
+    <row r="85" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A85" s="3" t="s">
         <v>313</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>35</v>
@@ -17596,15 +17595,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="86" spans="1:45">
+    <row r="86" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A86" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>35</v>
@@ -17733,15 +17732,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="87" spans="1:45">
+    <row r="87" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A87" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>35</v>
@@ -17870,15 +17869,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="88" spans="1:45">
+    <row r="88" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A88" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>35</v>
@@ -18007,15 +18006,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="89" spans="1:45">
+    <row r="89" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A89" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>35</v>
@@ -18144,15 +18143,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="90" spans="1:45">
+    <row r="90" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A90" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>35</v>
@@ -18281,15 +18280,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="91" spans="1:45">
+    <row r="91" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A91" s="3" t="s">
         <v>161</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>35</v>
@@ -18418,15 +18417,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="92" spans="1:45">
+    <row r="92" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A92" s="3" t="s">
         <v>175</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>35</v>
@@ -18555,15 +18554,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="1:45">
+    <row r="93" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A93" s="3" t="s">
         <v>478</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D93" t="s">
         <v>35</v>
@@ -18692,15 +18691,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:45">
+    <row r="94" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A94" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>35</v>
@@ -18829,15 +18828,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="1:45">
+    <row r="95" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A95" s="3" t="s">
         <v>452</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>35</v>
@@ -18966,15 +18965,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="96" spans="1:45">
+    <row r="96" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A96" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>35</v>
@@ -19103,15 +19102,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="97" spans="1:45">
+    <row r="97" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A97" s="3" t="s">
         <v>408</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>35</v>
@@ -19240,15 +19239,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="98" spans="1:45">
+    <row r="98" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A98" s="3" t="s">
         <v>288</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>35</v>
@@ -19377,15 +19376,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="99" spans="1:45">
+    <row r="99" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A99" s="3" t="s">
         <v>399</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>35</v>
@@ -19514,15 +19513,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="100" spans="1:45">
+    <row r="100" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A100" s="3" t="s">
         <v>412</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>35</v>
@@ -19651,15 +19650,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:45">
+    <row r="101" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A101" s="3" t="s">
         <v>229</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>35</v>
@@ -19788,15 +19787,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="102" spans="1:45">
+    <row r="102" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A102" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>35</v>
@@ -19925,15 +19924,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="103" spans="1:45">
+    <row r="103" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A103" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>35</v>
@@ -20062,15 +20061,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="104" spans="1:45">
+    <row r="104" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A104" s="3" t="s">
         <v>247</v>
       </c>
       <c r="B104" s="22" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>35</v>
@@ -20199,15 +20198,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="105" spans="1:45">
+    <row r="105" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A105" s="3" t="s">
         <v>418</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>35</v>
@@ -20336,15 +20335,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="106" spans="1:45">
+    <row r="106" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A106" s="3" t="s">
         <v>344</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>35</v>
@@ -20473,15 +20472,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="107" spans="1:45">
+    <row r="107" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A107" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B107" s="22" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>35</v>
@@ -20610,15 +20609,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="1:45">
+    <row r="108" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A108" s="3" t="s">
         <v>464</v>
       </c>
       <c r="B108" s="22" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D108" t="s">
         <v>35</v>
@@ -20747,15 +20746,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="109" spans="1:45">
+    <row r="109" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A109" s="3" t="s">
         <v>436</v>
       </c>
       <c r="B109" s="22" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>35</v>
@@ -20884,15 +20883,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="110" spans="1:45">
+    <row r="110" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A110" s="3" t="s">
         <v>456</v>
       </c>
       <c r="B110" s="22" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>35</v>
@@ -21021,15 +21020,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="111" spans="1:45">
+    <row r="111" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A111" s="3" t="s">
         <v>470</v>
       </c>
       <c r="B111" s="22" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D111" t="s">
         <v>35</v>
@@ -21158,15 +21157,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="112" spans="1:45">
+    <row r="112" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A112" s="3" t="s">
         <v>476</v>
       </c>
       <c r="B112" s="22" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D112" t="s">
         <v>35</v>
@@ -21295,15 +21294,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="113" spans="1:45">
+    <row r="113" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A113" s="3" t="s">
         <v>480</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D113" t="s">
         <v>35</v>
@@ -21432,15 +21431,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="114" spans="1:45">
+    <row r="114" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A114" s="3" t="s">
         <v>488</v>
       </c>
       <c r="B114" s="22" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D114" t="s">
         <v>35</v>
@@ -21569,15 +21568,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:45">
+    <row r="115" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A115" s="3" t="s">
         <v>319</v>
       </c>
       <c r="B115" s="22" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>35</v>
@@ -21706,15 +21705,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="116" spans="1:45">
+    <row r="116" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A116" s="3" t="s">
         <v>414</v>
       </c>
       <c r="B116" s="22" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>35</v>
@@ -21843,15 +21842,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="117" spans="1:45">
+    <row r="117" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A117" s="3" t="s">
         <v>340</v>
       </c>
       <c r="B117" s="22" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>35</v>
@@ -21980,15 +21979,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="118" spans="1:45">
+    <row r="118" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A118" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B118" s="22" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>35</v>
@@ -22117,15 +22116,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="119" spans="1:45">
+    <row r="119" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A119" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B119" s="22" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>35</v>
@@ -22254,15 +22253,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="120" spans="1:45">
+    <row r="120" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A120" s="3" t="s">
         <v>245</v>
       </c>
       <c r="B120" s="22" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>35</v>
@@ -22391,15 +22390,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="121" spans="1:45">
+    <row r="121" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A121" s="3" t="s">
         <v>385</v>
       </c>
       <c r="B121" s="22" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>35</v>
@@ -22528,15 +22527,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="122" spans="1:45">
+    <row r="122" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A122" s="3" t="s">
         <v>472</v>
       </c>
       <c r="B122" s="22" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D122" t="s">
         <v>35</v>
@@ -22665,15 +22664,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="123" spans="1:45">
+    <row r="123" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A123" s="3" t="s">
         <v>233</v>
       </c>
       <c r="B123" s="22" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>35</v>
@@ -22802,15 +22801,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="124" spans="1:45">
+    <row r="124" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A124" s="3" t="s">
         <v>237</v>
       </c>
       <c r="B124" s="22" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>35</v>
@@ -22939,15 +22938,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="125" spans="1:45">
+    <row r="125" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A125" s="3" t="s">
         <v>270</v>
       </c>
       <c r="B125" s="22" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>35</v>
@@ -23076,15 +23075,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="126" spans="1:45">
+    <row r="126" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A126" s="3" t="s">
         <v>280</v>
       </c>
       <c r="B126" s="22" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>35</v>
@@ -23213,15 +23212,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="127" spans="1:45">
+    <row r="127" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A127" s="3" t="s">
         <v>352</v>
       </c>
       <c r="B127" s="22" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>35</v>
@@ -23350,15 +23349,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="128" spans="1:45">
+    <row r="128" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A128" s="3" t="s">
         <v>358</v>
       </c>
       <c r="B128" s="22" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>35</v>
@@ -23487,15 +23486,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="129" spans="1:45">
+    <row r="129" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A129" s="3" t="s">
         <v>434</v>
       </c>
       <c r="B129" s="22" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>35</v>
@@ -23624,15 +23623,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="130" spans="1:45">
+    <row r="130" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A130" s="3" t="s">
         <v>502</v>
       </c>
       <c r="B130" s="22" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D130" t="s">
         <v>35</v>
@@ -23761,15 +23760,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="131" spans="1:45">
+    <row r="131" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A131" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>35</v>
@@ -23898,15 +23897,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="132" spans="1:45">
+    <row r="132" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A132" s="3" t="s">
         <v>354</v>
       </c>
       <c r="B132" s="22" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>35</v>
@@ -24035,15 +24034,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="133" spans="1:45">
+    <row r="133" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A133" s="3" t="s">
         <v>373</v>
       </c>
       <c r="B133" s="22" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>35</v>
@@ -24172,15 +24171,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="134" spans="1:45">
+    <row r="134" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A134" s="3" t="s">
         <v>375</v>
       </c>
       <c r="B134" s="22" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>35</v>
@@ -24309,15 +24308,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="135" spans="1:45">
+    <row r="135" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A135" s="3" t="s">
         <v>379</v>
       </c>
       <c r="B135" s="22" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>35</v>
@@ -24446,15 +24445,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="136" spans="1:45">
+    <row r="136" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A136" s="3" t="s">
         <v>235</v>
       </c>
       <c r="B136" s="22" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>35</v>
@@ -24583,15 +24582,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="137" spans="1:45">
+    <row r="137" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A137" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B137" s="22" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>35</v>
@@ -24720,15 +24719,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="138" spans="1:45">
+    <row r="138" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A138" s="3" t="s">
         <v>252</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D138" s="10" t="s">
         <v>35</v>
@@ -24857,15 +24856,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="139" spans="1:45">
+    <row r="139" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A139" s="3" t="s">
         <v>256</v>
       </c>
       <c r="B139" s="22" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>35</v>
@@ -24994,15 +24993,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="140" spans="1:45">
+    <row r="140" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A140" s="3" t="s">
         <v>364</v>
       </c>
       <c r="B140" s="22" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>35</v>
@@ -25131,15 +25130,15 @@
         <v>366</v>
       </c>
     </row>
-    <row r="141" spans="1:45">
+    <row r="141" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A141" s="3" t="s">
         <v>367</v>
       </c>
       <c r="B141" s="22" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>35</v>
@@ -25268,15 +25267,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="142" spans="1:45">
+    <row r="142" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A142" s="3" t="s">
         <v>381</v>
       </c>
       <c r="B142" s="22" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>35</v>
@@ -25405,15 +25404,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="143" spans="1:45">
+    <row r="143" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A143" s="3" t="s">
         <v>393</v>
       </c>
       <c r="B143" s="22" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>35</v>
@@ -25542,15 +25541,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="144" spans="1:45">
+    <row r="144" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A144" s="3" t="s">
         <v>387</v>
       </c>
       <c r="B144" s="22" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>35</v>
@@ -25679,15 +25678,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="145" spans="1:45">
+    <row r="145" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A145" s="3" t="s">
         <v>383</v>
       </c>
       <c r="B145" s="22" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>35</v>
@@ -25816,15 +25815,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="146" spans="1:45">
+    <row r="146" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A146" s="3" t="s">
         <v>389</v>
       </c>
       <c r="B146" s="22" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>35</v>
@@ -25953,15 +25952,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="147" spans="1:45">
+    <row r="147" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A147" s="3" t="s">
         <v>391</v>
       </c>
       <c r="B147" s="22" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>35</v>
@@ -26090,15 +26089,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="148" spans="1:45">
+    <row r="148" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A148" s="3" t="s">
         <v>424</v>
       </c>
       <c r="B148" s="22" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>35</v>
@@ -26227,15 +26226,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="149" spans="1:45">
+    <row r="149" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A149" s="3" t="s">
         <v>442</v>
       </c>
       <c r="B149" s="22" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>35</v>
@@ -26364,15 +26363,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="150" spans="1:45">
+    <row r="150" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A150" s="3" t="s">
         <v>444</v>
       </c>
       <c r="B150" s="22" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>35</v>
@@ -26501,15 +26500,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="151" spans="1:45">
+    <row r="151" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A151" s="3" t="s">
         <v>272</v>
       </c>
       <c r="B151" s="22" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>35</v>
@@ -26638,15 +26637,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="152" spans="1:45">
+    <row r="152" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A152" s="3" t="s">
         <v>371</v>
       </c>
       <c r="B152" s="22" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>35</v>
@@ -26775,15 +26774,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="153" spans="1:45">
+    <row r="153" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A153" s="3" t="s">
         <v>239</v>
       </c>
       <c r="B153" s="22" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>35</v>
@@ -26912,15 +26911,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="154" spans="1:45">
+    <row r="154" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A154" s="3" t="s">
         <v>397</v>
       </c>
       <c r="B154" s="22" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>35</v>
@@ -27049,15 +27048,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="155" spans="1:45">
+    <row r="155" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A155" s="3" t="s">
         <v>274</v>
       </c>
       <c r="B155" s="22" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>35</v>
@@ -27186,15 +27185,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="156" spans="1:45">
+    <row r="156" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A156" s="3" t="s">
         <v>311</v>
       </c>
       <c r="B156" s="22" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>35</v>
@@ -27323,15 +27322,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="157" spans="1:45">
+    <row r="157" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A157" s="3" t="s">
         <v>377</v>
       </c>
       <c r="B157" s="22" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>35</v>
@@ -27460,15 +27459,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="158" spans="1:45">
+    <row r="158" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A158" s="3" t="s">
         <v>458</v>
       </c>
       <c r="B158" s="22" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>35</v>
@@ -27597,15 +27596,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="159" spans="1:45">
+    <row r="159" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A159" s="3" t="s">
         <v>336</v>
       </c>
       <c r="B159" s="22" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>35</v>
@@ -27734,15 +27733,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="160" spans="1:45">
+    <row r="160" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A160" s="3" t="s">
         <v>276</v>
       </c>
       <c r="B160" s="22" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>35</v>
@@ -27871,15 +27870,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="161" spans="1:45">
+    <row r="161" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A161" s="3" t="s">
         <v>219</v>
       </c>
       <c r="B161" s="22" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>35</v>
@@ -28008,15 +28007,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="162" spans="1:45">
+    <row r="162" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A162" s="3" t="s">
         <v>221</v>
       </c>
       <c r="B162" s="22" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>35</v>
@@ -28145,15 +28144,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="163" spans="1:45">
+    <row r="163" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A163" s="3" t="s">
         <v>243</v>
       </c>
       <c r="B163" s="22" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>35</v>
@@ -28282,15 +28281,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="164" spans="1:45">
+    <row r="164" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A164" s="3" t="s">
         <v>254</v>
       </c>
       <c r="B164" s="22" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>35</v>
@@ -28419,15 +28418,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="165" spans="1:45">
+    <row r="165" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A165" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>35</v>
@@ -28556,15 +28555,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="166" spans="1:45">
+    <row r="166" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A166" s="3" t="s">
         <v>266</v>
       </c>
       <c r="B166" s="22" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>35</v>
@@ -28693,15 +28692,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="167" spans="1:45">
+    <row r="167" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A167" s="3" t="s">
         <v>268</v>
       </c>
       <c r="B167" s="22" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>35</v>
@@ -28830,15 +28829,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="168" spans="1:45">
+    <row r="168" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A168" s="3" t="s">
         <v>260</v>
       </c>
       <c r="B168" s="22" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>35</v>
@@ -28967,15 +28966,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="169" spans="1:45">
+    <row r="169" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A169" s="3" t="s">
         <v>262</v>
       </c>
       <c r="B169" s="22" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>35</v>
@@ -29104,15 +29103,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="170" spans="1:45">
+    <row r="170" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A170" s="3" t="s">
         <v>518</v>
       </c>
       <c r="B170" s="22" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D170" t="s">
         <v>35</v>
@@ -29241,15 +29240,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="171" spans="1:45">
+    <row r="171" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A171" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B171" s="22" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>35</v>
@@ -29378,15 +29377,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="172" spans="1:45">
+    <row r="172" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A172" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B172" s="22" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D172" s="4" t="s">
         <v>35</v>
@@ -29515,15 +29514,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="173" spans="1:45">
+    <row r="173" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A173" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D173" s="10" t="s">
         <v>35</v>
@@ -29652,15 +29651,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="174" spans="1:45">
+    <row r="174" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A174" s="3" t="s">
         <v>348</v>
       </c>
       <c r="B174" s="22" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D174" s="4" t="s">
         <v>35</v>
@@ -29789,15 +29788,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="175" spans="1:45">
+    <row r="175" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A175" s="3" t="s">
         <v>422</v>
       </c>
       <c r="B175" s="22" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D175" s="4" t="s">
         <v>35</v>
@@ -29926,15 +29925,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="176" spans="1:45">
+    <row r="176" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A176" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D176" s="6" t="s">
         <v>35</v>
@@ -30063,15 +30062,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="177" spans="1:45">
+    <row r="177" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A177" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D177" s="6" t="s">
         <v>35</v>
@@ -30200,15 +30199,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="178" spans="1:45">
+    <row r="178" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A178" s="3" t="s">
         <v>290</v>
       </c>
       <c r="B178" s="22" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D178" s="4" t="s">
         <v>35</v>
@@ -30337,15 +30336,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="179" spans="1:45">
+    <row r="179" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A179" s="3" t="s">
         <v>466</v>
       </c>
       <c r="B179" s="22" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D179" t="s">
         <v>35</v>
@@ -30474,15 +30473,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="180" spans="1:45">
+    <row r="180" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A180" s="3" t="s">
         <v>468</v>
       </c>
       <c r="B180" s="22" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D180" t="s">
         <v>35</v>
@@ -30611,15 +30610,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="181" spans="1:45">
+    <row r="181" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A181" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B181" s="22" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>35</v>
@@ -30748,15 +30747,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="182" spans="1:45">
+    <row r="182" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A182" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B182" s="22" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>35</v>
@@ -30885,15 +30884,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="183" spans="1:45">
+    <row r="183" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A183" s="3" t="s">
         <v>307</v>
       </c>
       <c r="B183" s="22" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>35</v>
@@ -31022,15 +31021,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="184" spans="1:45">
+    <row r="184" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A184" s="3" t="s">
         <v>197</v>
       </c>
       <c r="B184" s="22" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>35</v>
@@ -31159,15 +31158,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="185" spans="1:45">
+    <row r="185" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A185" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>35</v>
@@ -31296,15 +31295,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="186" spans="1:45">
+    <row r="186" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A186" s="3" t="s">
         <v>258</v>
       </c>
       <c r="B186" s="22" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D186" s="4" t="s">
         <v>35</v>
@@ -31433,15 +31432,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="187" spans="1:45">
+    <row r="187" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A187" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B187" s="22" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>35</v>
@@ -31570,15 +31569,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="188" spans="1:45">
+    <row r="188" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A188" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B188" s="22" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>35</v>
@@ -31707,15 +31706,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="189" spans="1:45">
+    <row r="189" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A189" s="3" t="s">
         <v>338</v>
       </c>
       <c r="B189" s="22" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>35</v>
@@ -31844,15 +31843,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="190" spans="1:45">
+    <row r="190" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A190" s="3" t="s">
         <v>446</v>
       </c>
       <c r="B190" s="22" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>35</v>
@@ -31981,15 +31980,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="191" spans="1:45">
+    <row r="191" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A191" s="3" t="s">
         <v>448</v>
       </c>
       <c r="B191" s="22" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>35</v>
@@ -32118,15 +32117,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="192" spans="1:45">
+    <row r="192" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A192" s="3" t="s">
         <v>462</v>
       </c>
       <c r="B192" s="22" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D192" t="s">
         <v>35</v>
@@ -32255,15 +32254,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="193" spans="1:45">
+    <row r="193" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A193" s="3" t="s">
         <v>474</v>
       </c>
       <c r="B193" s="22" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D193" t="s">
         <v>118</v>
@@ -32392,15 +32391,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="194" spans="1:45">
+    <row r="194" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A194" s="3" t="s">
         <v>492</v>
       </c>
       <c r="B194" s="22" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D194" t="s">
         <v>35</v>
@@ -32529,15 +32528,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="195" spans="1:45">
+    <row r="195" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A195" s="3" t="s">
         <v>496</v>
       </c>
       <c r="B195" s="22" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D195" t="s">
         <v>35</v>
@@ -32666,15 +32665,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="196" spans="1:45">
+    <row r="196" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A196" s="3" t="s">
         <v>500</v>
       </c>
       <c r="B196" s="22" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D196" t="s">
         <v>35</v>
@@ -32803,15 +32802,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="197" spans="1:45">
+    <row r="197" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A197" s="3" t="s">
         <v>510</v>
       </c>
       <c r="B197" s="22" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D197" t="s">
         <v>35</v>
@@ -32940,15 +32939,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="198" spans="1:45">
+    <row r="198" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A198" s="3" t="s">
         <v>516</v>
       </c>
       <c r="B198" s="22" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D198" t="s">
         <v>35</v>
@@ -33077,15 +33076,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:45">
+    <row r="199" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A199" s="3" t="s">
         <v>152</v>
       </c>
       <c r="B199" s="14" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D199" s="4" t="s">
         <v>35</v>
@@ -33214,15 +33213,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="200" spans="1:45">
+    <row r="200" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A200" s="3" t="s">
         <v>171</v>
       </c>
       <c r="B200" s="22" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D200" s="4" t="s">
         <v>35</v>
@@ -33351,15 +33350,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="201" spans="1:45">
+    <row r="201" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A201" s="3" t="s">
         <v>177</v>
       </c>
       <c r="B201" s="22" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>35</v>
@@ -33488,15 +33487,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="202" spans="1:45">
+    <row r="202" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A202" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B202" s="22" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>35</v>
@@ -33625,15 +33624,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="203" spans="1:45">
+    <row r="203" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A203" s="3" t="s">
         <v>315</v>
       </c>
       <c r="B203" s="22" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>35</v>
@@ -33762,15 +33761,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="204" spans="1:45">
+    <row r="204" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A204" s="3" t="s">
         <v>284</v>
       </c>
       <c r="B204" s="22" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D204" s="4" t="s">
         <v>35</v>
@@ -33899,15 +33898,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="205" spans="1:45">
+    <row r="205" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A205" s="3" t="s">
         <v>286</v>
       </c>
       <c r="B205" s="22" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>35</v>
@@ -34036,15 +34035,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="206" spans="1:45">
+    <row r="206" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A206" s="3" t="s">
         <v>278</v>
       </c>
       <c r="B206" s="22" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D206" s="4" t="s">
         <v>35</v>
@@ -34173,15 +34172,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="207" spans="1:45">
+    <row r="207" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A207" s="3" t="s">
         <v>295</v>
       </c>
       <c r="B207" s="22" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>35</v>
@@ -34310,15 +34309,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="208" spans="1:45">
+    <row r="208" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A208" s="3" t="s">
         <v>486</v>
       </c>
       <c r="B208" s="22" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D208" t="s">
         <v>35</v>
@@ -34447,15 +34446,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="209" spans="1:45">
+    <row r="209" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A209" s="3" t="s">
         <v>297</v>
       </c>
       <c r="B209" s="22" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D209" s="4" t="s">
         <v>35</v>
@@ -34584,15 +34583,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="210" spans="1:45">
+    <row r="210" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A210" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C210" s="9" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D210" s="10" t="s">
         <v>35</v>
@@ -34721,15 +34720,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="211" spans="1:45">
+    <row r="211" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A211" s="3" t="s">
         <v>305</v>
       </c>
       <c r="B211" s="22" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>35</v>
@@ -34858,15 +34857,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="212" spans="1:45">
+    <row r="212" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A212" s="3" t="s">
         <v>282</v>
       </c>
       <c r="B212" s="22" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>35</v>
@@ -34995,15 +34994,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="213" spans="1:45">
+    <row r="213" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A213" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="C213" s="9" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D213" s="10" t="s">
         <v>35</v>
@@ -35132,15 +35131,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="214" spans="1:45">
+    <row r="214" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A214" s="3" t="s">
         <v>227</v>
       </c>
       <c r="B214" s="22" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>35</v>
@@ -35269,15 +35268,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="215" spans="1:45">
+    <row r="215" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A215" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B215" s="14" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>35</v>
@@ -35406,15 +35405,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="216" spans="1:45">
+    <row r="216" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A216" s="3" t="s">
         <v>329</v>
       </c>
       <c r="B216" s="22" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>330</v>
@@ -35543,15 +35542,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="217" spans="1:45">
+    <row r="217" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A217" s="3" t="s">
         <v>494</v>
       </c>
       <c r="B217" s="22" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D217" t="s">
         <v>35</v>
@@ -35680,15 +35679,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="218" spans="1:45">
+    <row r="218" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A218" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B218" s="14" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D218" s="4" t="s">
         <v>118</v>
@@ -35817,15 +35816,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="219" spans="1:45">
+    <row r="219" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A219" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="C219" s="9" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D219" s="10" t="s">
         <v>35</v>
@@ -35954,15 +35953,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="220" spans="1:45">
+    <row r="220" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A220" s="3" t="s">
         <v>512</v>
       </c>
       <c r="B220" s="22" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D220" t="s">
         <v>35</v>
@@ -36091,15 +36090,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="221" spans="1:45">
+    <row r="221" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A221" s="3" t="s">
         <v>520</v>
       </c>
       <c r="B221" s="22" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D221" t="s">
         <v>118</v>
@@ -36228,15 +36227,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="222" spans="1:45">
+    <row r="222" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A222" s="3" t="s">
         <v>522</v>
       </c>
       <c r="B222" s="22" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D222" s="4" t="s">
         <v>35</v>
@@ -36365,15 +36364,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="223" spans="1:45">
+    <row r="223" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A223" s="3" t="s">
         <v>239</v>
       </c>
       <c r="B223" s="14" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D223" s="4" t="s">
         <v>35</v>
@@ -36502,15 +36501,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="224" spans="1:45">
+    <row r="224" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A224" s="3" t="s">
         <v>525</v>
       </c>
       <c r="B224" s="22" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D224" s="4" t="s">
         <v>35</v>
@@ -36639,15 +36638,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="225" spans="1:45">
+    <row r="225" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A225" s="3" t="s">
         <v>527</v>
       </c>
       <c r="B225" s="14" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D225" s="4" t="s">
         <v>35</v>
@@ -36776,15 +36775,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="226" spans="1:45">
+    <row r="226" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A226" s="3" t="s">
         <v>529</v>
       </c>
       <c r="B226" s="14" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D226" s="4" t="s">
         <v>35</v>
@@ -36913,15 +36912,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="227" spans="1:45">
+    <row r="227" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A227" s="3" t="s">
         <v>531</v>
       </c>
       <c r="B227" s="22" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D227" s="4" t="s">
         <v>35</v>
@@ -37050,15 +37049,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="228" spans="1:45">
+    <row r="228" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A228" s="3" t="s">
         <v>533</v>
       </c>
       <c r="B228" s="22" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D228" s="4" t="s">
         <v>35</v>
@@ -37187,15 +37186,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="229" spans="1:45">
+    <row r="229" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A229" s="3" t="s">
         <v>535</v>
       </c>
       <c r="B229" s="14" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D229" s="4" t="s">
         <v>35</v>
@@ -37324,15 +37323,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="230" spans="1:45">
+    <row r="230" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A230" s="3" t="s">
         <v>537</v>
       </c>
       <c r="B230" s="22" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D230" s="4" t="s">
         <v>35</v>
@@ -37461,15 +37460,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="231" spans="1:45">
+    <row r="231" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A231" s="3" t="s">
         <v>539</v>
       </c>
       <c r="B231" s="22" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D231" s="4" t="s">
         <v>35</v>
@@ -37598,15 +37597,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="232" spans="1:45">
+    <row r="232" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A232" s="3" t="s">
         <v>541</v>
       </c>
       <c r="B232" s="22" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D232" s="4" t="s">
         <v>35</v>
@@ -37735,15 +37734,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="233" spans="1:45">
+    <row r="233" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A233" s="3" t="s">
         <v>543</v>
       </c>
       <c r="B233" s="14" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D233" s="4" t="s">
         <v>35</v>
@@ -37872,15 +37871,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="234" spans="1:45">
+    <row r="234" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A234" s="3" t="s">
         <v>545</v>
       </c>
       <c r="B234" s="22" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D234" s="4" t="s">
         <v>35</v>
@@ -38009,15 +38008,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="235" spans="1:45">
+    <row r="235" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A235" s="12" t="s">
         <v>547</v>
       </c>
       <c r="B235" s="14" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D235" s="4" t="s">
         <v>35</v>
@@ -38146,15 +38145,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="236" spans="1:45">
+    <row r="236" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A236" s="3" t="s">
         <v>551</v>
       </c>
       <c r="B236" s="22" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D236" s="4" t="s">
         <v>35</v>
@@ -38283,15 +38282,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="237" spans="1:45">
+    <row r="237" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A237" s="3" t="s">
         <v>553</v>
       </c>
       <c r="B237" s="22" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D237" s="4" t="s">
         <v>35</v>
@@ -38420,15 +38419,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="238" spans="1:45">
+    <row r="238" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A238" s="3" t="s">
         <v>555</v>
       </c>
       <c r="B238" s="22" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D238" s="4" t="s">
         <v>35</v>
@@ -38557,15 +38556,15 @@
         <v>366</v>
       </c>
     </row>
-    <row r="239" spans="1:45">
+    <row r="239" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A239" s="3" t="s">
         <v>557</v>
       </c>
       <c r="B239" s="14" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D239" s="4" t="s">
         <v>35</v>
@@ -38694,15 +38693,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="240" spans="1:45">
+    <row r="240" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A240" s="3" t="s">
         <v>559</v>
       </c>
       <c r="B240" s="22" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D240" s="4" t="s">
         <v>35</v>
@@ -38831,15 +38830,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="241" spans="1:45">
+    <row r="241" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A241" s="3" t="s">
         <v>563</v>
       </c>
       <c r="B241" s="22" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D241" s="4" t="s">
         <v>35</v>
@@ -38968,15 +38967,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="242" spans="1:45">
+    <row r="242" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A242" s="3" t="s">
         <v>565</v>
       </c>
       <c r="B242" s="22" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D242" s="4" t="s">
         <v>35</v>
@@ -39105,15 +39104,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="243" spans="1:45">
+    <row r="243" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A243" s="3" t="s">
         <v>573</v>
       </c>
       <c r="B243" s="14" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D243" s="4" t="s">
         <v>35</v>
@@ -39242,15 +39241,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="244" spans="1:45">
+    <row r="244" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A244" s="3" t="s">
         <v>575</v>
       </c>
       <c r="B244" s="22" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D244" s="4" t="s">
         <v>35</v>
@@ -39379,15 +39378,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="245" spans="1:45">
+    <row r="245" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A245" s="3" t="s">
         <v>577</v>
       </c>
       <c r="B245" s="14" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D245" s="4" t="s">
         <v>35</v>
@@ -39516,15 +39515,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="246" spans="1:45">
+    <row r="246" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A246" s="3" t="s">
         <v>579</v>
       </c>
       <c r="B246" s="22" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D246" s="4" t="s">
         <v>35</v>
@@ -39653,15 +39652,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="247" spans="1:45">
+    <row r="247" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A247" s="3" t="s">
         <v>587</v>
       </c>
       <c r="B247" s="22" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D247" s="4" t="s">
         <v>35</v>
@@ -39790,15 +39789,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="248" spans="1:45">
+    <row r="248" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
         <v>589</v>
       </c>
       <c r="B248" s="22" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D248" s="4" t="s">
         <v>35</v>
@@ -39927,15 +39926,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="249" spans="1:45">
+    <row r="249" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A249" s="3" t="s">
         <v>591</v>
       </c>
       <c r="B249" s="14" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D249" s="4" t="s">
         <v>35</v>
@@ -40064,15 +40063,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="250" spans="1:45">
+    <row r="250" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A250" s="3" t="s">
         <v>595</v>
       </c>
       <c r="B250" s="22" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D250" s="4" t="s">
         <v>35</v>
@@ -40201,15 +40200,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="251" spans="1:45">
+    <row r="251" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A251" s="3" t="s">
         <v>605</v>
       </c>
       <c r="B251" s="14" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D251" s="4" t="s">
         <v>35</v>
@@ -40338,15 +40337,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="252" spans="1:45">
+    <row r="252" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A252" s="3" t="s">
         <v>607</v>
       </c>
       <c r="B252" s="22" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D252" s="4" t="s">
         <v>35</v>
@@ -40475,15 +40474,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="253" spans="1:45">
+    <row r="253" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
         <v>609</v>
       </c>
       <c r="B253" s="22" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D253" s="4" t="s">
         <v>35</v>
@@ -40612,15 +40611,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="254" spans="1:45">
+    <row r="254" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A254" s="3" t="s">
         <v>611</v>
       </c>
       <c r="B254" s="22" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D254" s="4" t="s">
         <v>35</v>
@@ -40749,15 +40748,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="255" spans="1:45">
+    <row r="255" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A255" s="3" t="s">
         <v>613</v>
       </c>
       <c r="B255" s="22" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D255" s="4" t="s">
         <v>35</v>
@@ -40886,15 +40885,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="256" spans="1:45">
+    <row r="256" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A256" s="3" t="s">
         <v>615</v>
       </c>
       <c r="B256" s="22" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D256" s="4" t="s">
         <v>35</v>
@@ -41023,15 +41022,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="257" spans="1:45">
+    <row r="257" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A257" s="7" t="s">
         <v>617</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D257" s="4" t="s">
         <v>35</v>
@@ -41160,15 +41159,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="258" spans="1:45">
+    <row r="258" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A258" s="3" t="s">
         <v>619</v>
       </c>
       <c r="B258" s="22" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D258" s="4" t="s">
         <v>35</v>
@@ -41297,15 +41296,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="259" spans="1:45">
+    <row r="259" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A259" s="3" t="s">
         <v>621</v>
       </c>
       <c r="B259" s="22" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D259" s="4" t="s">
         <v>35</v>
@@ -41434,15 +41433,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="260" spans="1:45">
+    <row r="260" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A260" s="3" t="s">
         <v>623</v>
       </c>
       <c r="B260" s="22" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D260" s="4" t="s">
         <v>35</v>
@@ -41571,15 +41570,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="261" spans="1:45">
+    <row r="261" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A261" s="3" t="s">
         <v>625</v>
       </c>
       <c r="B261" s="22" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D261" s="4" t="s">
         <v>35</v>
@@ -41708,15 +41707,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="262" spans="1:45">
+    <row r="262" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
         <v>627</v>
       </c>
       <c r="B262" s="22" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D262" s="4" t="s">
         <v>35</v>
@@ -41845,15 +41844,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="263" spans="1:45">
+    <row r="263" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A263" s="3" t="s">
         <v>629</v>
       </c>
       <c r="B263" s="22" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D263" s="4" t="s">
         <v>35</v>
@@ -41982,15 +41981,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="264" spans="1:45">
+    <row r="264" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A264" s="3" t="s">
         <v>631</v>
       </c>
       <c r="B264" s="22" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D264" s="4" t="s">
         <v>35</v>
@@ -42119,15 +42118,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="265" spans="1:45">
+    <row r="265" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A265" s="3" t="s">
         <v>633</v>
       </c>
       <c r="B265" s="22" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D265" s="4" t="s">
         <v>35</v>
@@ -42256,15 +42255,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="266" spans="1:45">
+    <row r="266" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A266" s="3" t="s">
         <v>635</v>
       </c>
       <c r="B266" s="22" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D266" s="4" t="s">
         <v>35</v>
@@ -42393,15 +42392,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="267" spans="1:45">
+    <row r="267" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A267" s="3" t="s">
         <v>637</v>
       </c>
       <c r="B267" s="22" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D267" s="4" t="s">
         <v>35</v>
@@ -42530,15 +42529,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="268" spans="1:45">
+    <row r="268" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A268" s="4" t="s">
         <v>639</v>
       </c>
       <c r="B268" s="22" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D268" s="4" t="s">
         <v>35</v>
@@ -42667,15 +42666,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="269" spans="1:45">
+    <row r="269" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A269" s="7" t="s">
         <v>641</v>
       </c>
       <c r="B269" s="22" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D269" s="4" t="s">
         <v>35</v>
@@ -42804,15 +42803,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="270" spans="1:45">
+    <row r="270" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A270" s="13" t="s">
         <v>643</v>
       </c>
       <c r="B270" s="22" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D270" s="4" t="s">
         <v>35</v>
@@ -42941,15 +42940,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="271" spans="1:45">
+    <row r="271" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A271" s="13" t="s">
         <v>645</v>
       </c>
       <c r="B271" s="22" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D271" s="4" t="s">
         <v>35</v>
@@ -43078,15 +43077,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="272" spans="1:45">
+    <row r="272" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A272" s="13" t="s">
         <v>647</v>
       </c>
       <c r="B272" s="22" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D272" s="4" t="s">
         <v>35</v>
@@ -43215,15 +43214,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="273" spans="1:45">
+    <row r="273" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A273" s="12" t="s">
         <v>651</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D273" s="10" t="s">
         <v>35</v>
@@ -43352,15 +43351,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="274" spans="1:45">
+    <row r="274" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A274" s="13" t="s">
         <v>653</v>
       </c>
       <c r="B274" s="22" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D274" s="4" t="s">
         <v>35</v>
@@ -43489,15 +43488,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="275" spans="1:45">
+    <row r="275" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A275" s="7" t="s">
         <v>655</v>
       </c>
       <c r="B275" s="22" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D275" s="4" t="s">
         <v>35</v>
@@ -43626,15 +43625,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="276" spans="1:45">
+    <row r="276" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A276" s="7" t="s">
         <v>657</v>
       </c>
       <c r="B276" s="22" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D276" s="4" t="s">
         <v>35</v>
@@ -43763,15 +43762,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="277" spans="1:45">
+    <row r="277" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A277" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B277" s="22" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D277" s="4" t="s">
         <v>35</v>
@@ -43900,15 +43899,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="278" spans="1:45">
+    <row r="278" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A278" s="3" t="s">
         <v>663</v>
       </c>
       <c r="B278" s="22" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D278" t="s">
         <v>35</v>
@@ -44037,15 +44036,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="279" spans="1:45">
+    <row r="279" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A279" s="3" t="s">
         <v>665</v>
       </c>
       <c r="B279" s="22" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D279" t="s">
         <v>35</v>
@@ -44174,15 +44173,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="280" spans="1:45">
+    <row r="280" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A280" s="3" t="s">
         <v>667</v>
       </c>
       <c r="B280" s="22" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D280" t="s">
         <v>35</v>
@@ -44311,15 +44310,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="281" spans="1:45">
+    <row r="281" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A281" s="3" t="s">
         <v>669</v>
       </c>
       <c r="B281" s="22" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D281" t="s">
         <v>35</v>
@@ -44448,15 +44447,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="282" spans="1:45">
+    <row r="282" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A282" s="3" t="s">
         <v>671</v>
       </c>
       <c r="B282" s="22" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D282" t="s">
         <v>35</v>
@@ -44585,15 +44584,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="283" spans="1:45">
+    <row r="283" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A283" s="3" t="s">
         <v>673</v>
       </c>
       <c r="B283" s="22" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D283" t="s">
         <v>35</v>
@@ -44722,15 +44721,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="284" spans="1:45">
+    <row r="284" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A284" s="3" t="s">
         <v>675</v>
       </c>
       <c r="B284" s="22" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D284" t="s">
         <v>35</v>
@@ -44859,15 +44858,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="285" spans="1:45">
+    <row r="285" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A285" s="3" t="s">
         <v>677</v>
       </c>
       <c r="B285" s="22" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D285" t="s">
         <v>35</v>
@@ -44996,15 +44995,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="286" spans="1:45">
+    <row r="286" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A286" s="3" t="s">
         <v>679</v>
       </c>
       <c r="B286" s="22" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D286" t="s">
         <v>35</v>
@@ -45133,15 +45132,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="287" spans="1:45">
+    <row r="287" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A287" s="3" t="s">
         <v>681</v>
       </c>
       <c r="B287" s="22" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D287" t="s">
         <v>35</v>
@@ -45270,15 +45269,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="288" spans="1:45">
+    <row r="288" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A288" s="3" t="s">
         <v>683</v>
       </c>
       <c r="B288" s="22" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D288" t="s">
         <v>35</v>
@@ -45407,15 +45406,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="289" spans="1:45">
+    <row r="289" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A289" s="7" t="s">
         <v>687</v>
       </c>
       <c r="B289" s="22" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D289" t="s">
         <v>35</v>
@@ -45544,15 +45543,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="290" spans="1:45">
+    <row r="290" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A290" s="7" t="s">
         <v>689</v>
       </c>
       <c r="B290" s="22" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D290" t="s">
         <v>35</v>
@@ -45681,15 +45680,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="291" spans="1:45">
+    <row r="291" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A291" s="7" t="s">
         <v>691</v>
       </c>
       <c r="B291" s="22" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D291" t="s">
         <v>35</v>
@@ -45818,15 +45817,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="292" spans="1:45">
+    <row r="292" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A292" s="14" t="s">
         <v>693</v>
       </c>
       <c r="B292" s="22" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D292" t="s">
         <v>35</v>
@@ -45955,15 +45954,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="293" spans="1:45">
+    <row r="293" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A293" s="14" t="s">
         <v>695</v>
       </c>
       <c r="B293" s="22" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D293" t="s">
         <v>35</v>
@@ -46092,15 +46091,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="294" spans="1:45">
+    <row r="294" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A294" s="4" t="s">
         <v>699</v>
       </c>
       <c r="B294" s="22" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D294" t="s">
         <v>35</v>
@@ -46229,15 +46228,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="295" spans="1:45">
+    <row r="295" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A295" s="4" t="s">
         <v>703</v>
       </c>
       <c r="B295" s="22" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D295" t="s">
         <v>35</v>
@@ -46366,15 +46365,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="296" spans="1:45">
+    <row r="296" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A296" s="4" t="s">
         <v>707</v>
       </c>
       <c r="B296" s="22" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D296" t="s">
         <v>35</v>
@@ -46503,15 +46502,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="297" spans="1:45">
+    <row r="297" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A297" s="4" t="s">
         <v>709</v>
       </c>
       <c r="B297" s="22" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D297" t="s">
         <v>35</v>
@@ -46640,15 +46639,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="298" spans="1:45">
+    <row r="298" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A298" s="4" t="s">
         <v>711</v>
       </c>
       <c r="B298" s="22" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D298" t="s">
         <v>35</v>
@@ -46777,15 +46776,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="299" spans="1:45">
+    <row r="299" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A299" s="4" t="s">
         <v>713</v>
       </c>
       <c r="B299" s="22" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D299" t="s">
         <v>35</v>
@@ -46914,15 +46913,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="300" spans="1:45">
+    <row r="300" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A300" s="4" t="s">
         <v>715</v>
       </c>
       <c r="B300" s="22" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D300" t="s">
         <v>35</v>
@@ -47051,15 +47050,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="301" spans="1:45">
+    <row r="301" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A301" s="4" t="s">
         <v>717</v>
       </c>
       <c r="B301" s="22" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D301" t="s">
         <v>35</v>
@@ -47188,15 +47187,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="302" spans="1:45">
+    <row r="302" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A302" s="4" t="s">
         <v>719</v>
       </c>
       <c r="B302" s="22" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D302" t="s">
         <v>35</v>
@@ -47325,15 +47324,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="303" spans="1:45">
+    <row r="303" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A303" s="4" t="s">
         <v>721</v>
       </c>
       <c r="B303" s="22" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D303" t="s">
         <v>35</v>
@@ -47462,15 +47461,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="304" spans="1:45">
+    <row r="304" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A304" s="4" t="s">
         <v>723</v>
       </c>
       <c r="B304" s="22" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D304" t="s">
         <v>35</v>
@@ -47599,15 +47598,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="305" spans="1:45">
+    <row r="305" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A305" s="4" t="s">
         <v>725</v>
       </c>
       <c r="B305" s="22" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D305" t="s">
         <v>35</v>
@@ -47736,15 +47735,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="306" spans="1:45">
+    <row r="306" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A306" s="4" t="s">
         <v>727</v>
       </c>
       <c r="B306" s="22" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D306" t="s">
         <v>35</v>
@@ -47873,15 +47872,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="307" spans="1:45">
+    <row r="307" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A307" s="4" t="s">
         <v>729</v>
       </c>
       <c r="B307" s="22" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D307" t="s">
         <v>35</v>
@@ -48010,15 +48009,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="308" spans="1:45">
+    <row r="308" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A308" s="4" t="s">
         <v>733</v>
       </c>
       <c r="B308" s="22" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D308" t="s">
         <v>35</v>
@@ -48147,15 +48146,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="309" spans="1:45">
+    <row r="309" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A309" s="4" t="s">
         <v>735</v>
       </c>
       <c r="B309" s="22" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D309" t="s">
         <v>35</v>
@@ -48284,15 +48283,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="310" spans="1:45">
+    <row r="310" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A310" s="14" t="s">
         <v>737</v>
       </c>
       <c r="B310" s="22" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D310" t="s">
         <v>35</v>
@@ -48421,15 +48420,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="311" spans="1:45">
+    <row r="311" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A311" s="4" t="s">
         <v>738</v>
       </c>
       <c r="B311" s="22" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D311" t="s">
         <v>35</v>
@@ -48558,15 +48557,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="312" spans="1:45">
+    <row r="312" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A312" s="4" t="s">
         <v>740</v>
       </c>
       <c r="B312" s="22" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D312" t="s">
         <v>35</v>
@@ -48695,15 +48694,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="313" spans="1:45">
+    <row r="313" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A313" s="4" t="s">
         <v>742</v>
       </c>
       <c r="B313" s="22" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D313" t="s">
         <v>35</v>
@@ -48832,15 +48831,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="314" spans="1:45">
+    <row r="314" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A314" s="4" t="s">
         <v>744</v>
       </c>
       <c r="B314" s="22" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D314" t="s">
         <v>35</v>
@@ -48969,15 +48968,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="315" spans="1:45">
+    <row r="315" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A315" s="4" t="s">
         <v>746</v>
       </c>
       <c r="B315" s="22" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D315" t="s">
         <v>35</v>
@@ -49106,15 +49105,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="316" spans="1:45">
+    <row r="316" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A316" s="14" t="s">
         <v>748</v>
       </c>
       <c r="B316" s="22" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D316" t="s">
         <v>35</v>
@@ -49243,15 +49242,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="317" spans="1:45">
+    <row r="317" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A317" s="4" t="s">
         <v>750</v>
       </c>
       <c r="B317" s="22" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D317" t="s">
         <v>330</v>
@@ -49380,15 +49379,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="318" spans="1:45">
+    <row r="318" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A318" s="4" t="s">
         <v>752</v>
       </c>
       <c r="B318" s="22" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D318" t="s">
         <v>35</v>
@@ -49517,15 +49516,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="319" spans="1:45">
+    <row r="319" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A319" s="4" t="s">
         <v>754</v>
       </c>
       <c r="B319" s="22" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D319" t="s">
         <v>35</v>
@@ -49654,15 +49653,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="320" spans="1:45">
+    <row r="320" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A320" s="4" t="s">
         <v>756</v>
       </c>
       <c r="B320" s="22" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D320" t="s">
         <v>35</v>
@@ -49791,15 +49790,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="321" spans="1:45">
+    <row r="321" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A321" s="4" t="s">
         <v>758</v>
       </c>
       <c r="B321" s="22" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D321" t="s">
         <v>35</v>
@@ -49928,15 +49927,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="322" spans="1:45">
+    <row r="322" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A322" s="4" t="s">
         <v>760</v>
       </c>
       <c r="B322" s="22" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D322" t="s">
         <v>35</v>
@@ -50065,15 +50064,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="323" spans="1:45">
+    <row r="323" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A323" s="4" t="s">
         <v>762</v>
       </c>
       <c r="B323" s="22" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D323" t="s">
         <v>35</v>
@@ -50202,15 +50201,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="324" spans="1:45">
+    <row r="324" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A324" s="14" t="s">
         <v>764</v>
       </c>
       <c r="B324" s="22" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D324" t="s">
         <v>35</v>
@@ -50339,15 +50338,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="325" spans="1:45">
+    <row r="325" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A325" s="4" t="s">
         <v>766</v>
       </c>
       <c r="B325" s="22" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D325" t="s">
         <v>330</v>
@@ -50476,15 +50475,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="326" spans="1:45">
+    <row r="326" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A326" s="4" t="s">
         <v>768</v>
       </c>
       <c r="B326" s="22" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D326" t="s">
         <v>35</v>
@@ -50613,15 +50612,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="327" spans="1:45">
+    <row r="327" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A327" s="4" t="s">
         <v>770</v>
       </c>
       <c r="B327" s="22" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D327" t="s">
         <v>35</v>
@@ -50750,15 +50749,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="328" spans="1:45">
+    <row r="328" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A328" s="4" t="s">
         <v>772</v>
       </c>
       <c r="B328" s="22" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D328" t="s">
         <v>35</v>
@@ -50887,15 +50886,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="329" spans="1:45">
+    <row r="329" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A329" s="14" t="s">
         <v>774</v>
       </c>
       <c r="B329" s="22" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D329" t="s">
         <v>35</v>
@@ -51024,15 +51023,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="330" spans="1:45">
+    <row r="330" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A330" s="4" t="s">
         <v>776</v>
       </c>
       <c r="B330" s="22" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D330" t="s">
         <v>35</v>
@@ -51161,15 +51160,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="331" spans="1:45">
+    <row r="331" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A331" s="4" t="s">
         <v>778</v>
       </c>
       <c r="B331" s="22" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D331" t="s">
         <v>35</v>
@@ -51298,15 +51297,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="332" spans="1:45">
+    <row r="332" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A332" s="4" t="s">
         <v>779</v>
       </c>
       <c r="B332" s="22" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D332" t="s">
         <v>35</v>
@@ -51435,15 +51434,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="333" spans="1:45">
+    <row r="333" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A333" s="4" t="s">
         <v>782</v>
       </c>
       <c r="B333" s="22" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D333" t="s">
         <v>35</v>
@@ -51572,15 +51571,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="334" spans="1:45">
+    <row r="334" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A334" s="14" t="s">
         <v>786</v>
       </c>
       <c r="B334" s="22" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D334" t="s">
         <v>35</v>
@@ -51709,15 +51708,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="335" spans="1:45">
+    <row r="335" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A335" s="4" t="s">
         <v>788</v>
       </c>
       <c r="B335" s="22" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D335" t="s">
         <v>35</v>
@@ -51846,15 +51845,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="336" spans="1:45">
+    <row r="336" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A336" s="4" t="s">
         <v>790</v>
       </c>
       <c r="B336" s="22" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D336" t="s">
         <v>35</v>
@@ -51983,15 +51982,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="337" spans="1:45">
+    <row r="337" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A337" s="4" t="s">
         <v>792</v>
       </c>
       <c r="B337" s="22" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D337" t="s">
         <v>35</v>
@@ -52120,15 +52119,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="338" spans="1:45">
+    <row r="338" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A338" s="4" t="s">
         <v>794</v>
       </c>
       <c r="B338" s="22" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D338" t="s">
         <v>35</v>
@@ -52257,15 +52256,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="339" spans="1:45">
+    <row r="339" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A339" s="4" t="s">
         <v>796</v>
       </c>
       <c r="B339" s="22" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D339" t="s">
         <v>35</v>
@@ -52394,15 +52393,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="340" spans="1:45">
+    <row r="340" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A340" s="4" t="s">
         <v>798</v>
       </c>
       <c r="B340" s="22" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D340" t="s">
         <v>35</v>
@@ -52531,15 +52530,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="341" spans="1:45">
+    <row r="341" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A341" s="4" t="s">
         <v>800</v>
       </c>
       <c r="B341" s="22" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D341" t="s">
         <v>35</v>
@@ -52668,15 +52667,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="342" spans="1:45">
+    <row r="342" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A342" s="4" t="s">
         <v>802</v>
       </c>
       <c r="B342" s="22" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D342" t="s">
         <v>35</v>
@@ -52805,15 +52804,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="343" spans="1:45">
+    <row r="343" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A343" s="4" t="s">
         <v>804</v>
       </c>
       <c r="B343" s="22" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D343" t="s">
         <v>35</v>
@@ -52942,15 +52941,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="344" spans="1:45">
+    <row r="344" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A344" s="4" t="s">
         <v>806</v>
       </c>
       <c r="B344" s="22" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D344" t="s">
         <v>35</v>
@@ -53079,15 +53078,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="345" spans="1:45">
+    <row r="345" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A345" s="4" t="s">
         <v>810</v>
       </c>
       <c r="B345" s="22" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D345" t="s">
         <v>35</v>
@@ -53216,15 +53215,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="346" spans="1:45">
+    <row r="346" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A346" s="4" t="s">
         <v>814</v>
       </c>
       <c r="B346" s="22" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D346" t="s">
         <v>35</v>
@@ -53353,15 +53352,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="347" spans="1:45">
+    <row r="347" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A347" s="4" t="s">
         <v>816</v>
       </c>
       <c r="B347" s="22" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D347" t="s">
         <v>35</v>
@@ -53490,15 +53489,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="348" spans="1:45">
+    <row r="348" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A348" s="4" t="s">
         <v>818</v>
       </c>
       <c r="B348" s="22" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D348" t="s">
         <v>35</v>
@@ -53627,15 +53626,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="349" spans="1:45">
+    <row r="349" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A349" t="s">
         <v>820</v>
       </c>
       <c r="B349" s="22" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D349" t="s">
         <v>35</v>
@@ -53764,15 +53763,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="350" spans="1:45">
+    <row r="350" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A350" t="s">
         <v>821</v>
       </c>
       <c r="B350" s="22" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D350" t="s">
         <v>35</v>
@@ -53901,15 +53900,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="351" spans="1:45">
+    <row r="351" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A351" t="s">
         <v>823</v>
       </c>
       <c r="B351" s="22" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D351" t="s">
         <v>35</v>
@@ -54038,15 +54037,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="352" spans="1:45">
+    <row r="352" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A352" t="s">
         <v>825</v>
       </c>
       <c r="B352" s="22" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D352" t="s">
         <v>35</v>
@@ -54175,15 +54174,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="353" spans="1:45">
+    <row r="353" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A353" t="s">
         <v>827</v>
       </c>
       <c r="B353" s="22" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D353" t="s">
         <v>35</v>
@@ -54312,15 +54311,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="354" spans="1:45">
+    <row r="354" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A354" t="s">
         <v>829</v>
       </c>
       <c r="B354" s="22" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D354" t="s">
         <v>35</v>
@@ -54449,15 +54448,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="355" spans="1:45">
+    <row r="355" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A355" t="s">
         <v>831</v>
       </c>
       <c r="B355" s="22" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D355" t="s">
         <v>35</v>
@@ -54586,15 +54585,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="356" spans="1:45">
+    <row r="356" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A356" t="s">
         <v>833</v>
       </c>
       <c r="B356" s="22" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D356" t="s">
         <v>35</v>
@@ -54723,15 +54722,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="357" spans="1:45">
+    <row r="357" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A357" t="s">
         <v>835</v>
       </c>
       <c r="B357" s="22" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D357" t="s">
         <v>35</v>
@@ -54860,15 +54859,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="358" spans="1:45">
+    <row r="358" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A358" t="s">
         <v>837</v>
       </c>
       <c r="B358" s="22" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D358" t="s">
         <v>35</v>
@@ -54997,15 +54996,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="359" spans="1:45">
+    <row r="359" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A359" t="s">
         <v>839</v>
       </c>
       <c r="B359" s="22" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D359" t="s">
         <v>35</v>
@@ -55134,15 +55133,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="360" spans="1:45">
+    <row r="360" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A360" t="s">
         <v>841</v>
       </c>
       <c r="B360" s="22" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D360" t="s">
         <v>35</v>
@@ -55271,15 +55270,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="361" spans="1:45">
+    <row r="361" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A361" t="s">
         <v>843</v>
       </c>
       <c r="B361" s="22" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D361" t="s">
         <v>35</v>
@@ -55408,15 +55407,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="362" spans="1:45">
+    <row r="362" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A362" t="s">
         <v>845</v>
       </c>
       <c r="B362" s="22" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D362" t="s">
         <v>35</v>
@@ -55545,15 +55544,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="363" spans="1:45">
+    <row r="363" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A363" t="s">
         <v>847</v>
       </c>
       <c r="B363" s="22" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D363" t="s">
         <v>35</v>
@@ -55682,15 +55681,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="364" spans="1:45">
+    <row r="364" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A364" t="s">
         <v>849</v>
       </c>
       <c r="B364" s="22" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D364" t="s">
         <v>35</v>
@@ -55819,15 +55818,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="365" spans="1:45">
+    <row r="365" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A365" t="s">
         <v>853</v>
       </c>
       <c r="B365" s="22" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D365" t="s">
         <v>35</v>
@@ -55956,15 +55955,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="366" spans="1:45">
+    <row r="366" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A366" t="s">
         <v>855</v>
       </c>
       <c r="B366" s="22" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D366" t="s">
         <v>35</v>
@@ -56093,15 +56092,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="367" spans="1:45">
+    <row r="367" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A367" t="s">
         <v>857</v>
       </c>
       <c r="B367" s="22" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D367" t="s">
         <v>35</v>
@@ -56230,15 +56229,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="368" spans="1:45">
+    <row r="368" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A368" t="s">
         <v>859</v>
       </c>
       <c r="B368" s="22" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D368" t="s">
         <v>35</v>
@@ -56367,15 +56366,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="369" spans="1:45">
+    <row r="369" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A369" t="s">
         <v>861</v>
       </c>
       <c r="B369" s="22" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D369" t="s">
         <v>35</v>
@@ -56504,15 +56503,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="370" spans="1:45">
+    <row r="370" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A370" t="s">
         <v>863</v>
       </c>
       <c r="B370" s="22" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D370" t="s">
         <v>35</v>
@@ -56641,15 +56640,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="371" spans="1:45">
+    <row r="371" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A371" t="s">
         <v>865</v>
       </c>
       <c r="B371" s="22" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D371" t="s">
         <v>35</v>
@@ -56778,15 +56777,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="372" spans="1:45">
+    <row r="372" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A372" t="s">
         <v>868</v>
       </c>
       <c r="B372" s="22" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D372" t="s">
         <v>35</v>
@@ -56915,15 +56914,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="373" spans="1:45">
+    <row r="373" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A373" t="s">
         <v>870</v>
       </c>
       <c r="B373" s="22" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D373" t="s">
         <v>35</v>
@@ -57052,15 +57051,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="374" spans="1:45">
+    <row r="374" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A374" t="s">
         <v>872</v>
       </c>
       <c r="B374" s="22" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D374" t="s">
         <v>35</v>
@@ -57189,15 +57188,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="375" spans="1:45">
+    <row r="375" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A375" t="s">
         <v>876</v>
       </c>
       <c r="B375" s="22" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D375" t="s">
         <v>35</v>
@@ -57326,15 +57325,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="376" spans="1:45">
+    <row r="376" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A376" t="s">
         <v>878</v>
       </c>
       <c r="B376" s="22" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D376" t="s">
         <v>35</v>
@@ -57463,15 +57462,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="377" spans="1:45">
+    <row r="377" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A377" t="s">
         <v>880</v>
       </c>
       <c r="B377" s="22" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D377" t="s">
         <v>35</v>
@@ -57600,15 +57599,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="378" spans="1:45">
+    <row r="378" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A378" t="s">
         <v>882</v>
       </c>
       <c r="B378" s="22" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D378" t="s">
         <v>35</v>
@@ -57737,15 +57736,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="379" spans="1:45">
+    <row r="379" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A379" t="s">
         <v>369</v>
       </c>
       <c r="B379" s="22" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D379" s="4" t="s">
         <v>35</v>
@@ -57874,15 +57873,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="380" spans="1:45">
+    <row r="380" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A380" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="C380" s="9" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D380" s="6" t="s">
         <v>35</v>
@@ -58011,15 +58010,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="381" spans="1:45">
+    <row r="381" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A381" s="3" t="s">
         <v>561</v>
       </c>
       <c r="B381" s="22" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D381" s="4" t="s">
         <v>35</v>
@@ -58148,15 +58147,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="382" spans="1:45">
+    <row r="382" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A382" s="3" t="s">
         <v>567</v>
       </c>
       <c r="B382" s="14" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D382" s="4" t="s">
         <v>35</v>
@@ -58285,15 +58284,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="383" spans="1:45">
+    <row r="383" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A383" s="3" t="s">
         <v>203</v>
       </c>
       <c r="B383" s="22" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D383" s="4" t="s">
         <v>35</v>
@@ -58422,15 +58421,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="384" spans="1:45">
+    <row r="384" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A384" s="7" t="s">
         <v>812</v>
       </c>
       <c r="B384" s="22" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D384" t="s">
         <v>35</v>
@@ -58559,15 +58558,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="385" spans="1:45">
+    <row r="385" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A385" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B385" s="14" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D385" s="4" t="s">
         <v>35</v>
@@ -58696,15 +58695,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="386" spans="1:45">
+    <row r="386" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A386" s="3" t="s">
         <v>299</v>
       </c>
       <c r="B386" s="22" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D386" s="4" t="s">
         <v>35</v>
@@ -58833,15 +58832,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="387" spans="1:45">
+    <row r="387" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A387" s="3" t="s">
         <v>430</v>
       </c>
       <c r="B387" s="22" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D387" s="4" t="s">
         <v>35</v>
@@ -58970,15 +58969,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="388" spans="1:45">
+    <row r="388" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A388" s="3" t="s">
         <v>490</v>
       </c>
       <c r="B388" s="22" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D388" t="s">
         <v>35</v>
@@ -59107,15 +59106,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="389" spans="1:45">
+    <row r="389" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A389" s="3" t="s">
         <v>460</v>
       </c>
       <c r="B389" s="22" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D389" s="4" t="s">
         <v>35</v>
@@ -59244,15 +59243,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="390" spans="1:45">
+    <row r="390" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A390" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B390" s="14" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D390" s="4" t="s">
         <v>35</v>
@@ -59381,15 +59380,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="391" spans="1:45">
+    <row r="391" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A391" s="3" t="s">
         <v>504</v>
       </c>
       <c r="B391" s="22" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D391" t="s">
         <v>35</v>
@@ -59518,15 +59517,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="392" spans="1:45">
+    <row r="392" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A392" s="3" t="s">
         <v>685</v>
       </c>
       <c r="B392" s="22" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D392" t="s">
         <v>35</v>
@@ -59655,15 +59654,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="393" spans="1:45">
+    <row r="393" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A393" s="7" t="s">
         <v>784</v>
       </c>
       <c r="B393" s="22" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D393" t="s">
         <v>35</v>
@@ -59792,15 +59791,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="394" spans="1:45">
+    <row r="394" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A394" t="s">
         <v>851</v>
       </c>
       <c r="B394" s="22" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D394" t="s">
         <v>35</v>
@@ -59929,15 +59928,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="395" spans="1:45">
+    <row r="395" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A395" t="s">
         <v>62</v>
       </c>
       <c r="B395" s="14" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D395" s="4" t="s">
         <v>35</v>
@@ -60066,15 +60065,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="396" spans="1:45">
+    <row r="396" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A396" t="s">
         <v>362</v>
       </c>
       <c r="B396" s="22" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D396" s="4" t="s">
         <v>35</v>
@@ -60203,15 +60202,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="397" spans="1:45">
+    <row r="397" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A397" t="s">
         <v>309</v>
       </c>
       <c r="B397" s="22" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D397" s="4" t="s">
         <v>35</v>
@@ -60340,15 +60339,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="398" spans="1:45">
+    <row r="398" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A398" t="s">
         <v>292</v>
       </c>
       <c r="B398" s="22" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D398" s="4" t="s">
         <v>35</v>
@@ -60477,15 +60476,15 @@
         <v>294</v>
       </c>
     </row>
-    <row r="399" spans="1:45">
+    <row r="399" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A399" t="s">
         <v>321</v>
       </c>
       <c r="B399" s="22" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D399" s="4" t="s">
         <v>35</v>
@@ -60614,15 +60613,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="400" spans="1:45">
+    <row r="400" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A400" t="s">
         <v>64</v>
       </c>
       <c r="B400" s="14" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D400" s="4" t="s">
         <v>35</v>
@@ -60751,15 +60750,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="401" spans="1:45">
+    <row r="401" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A401" t="s">
         <v>599</v>
       </c>
       <c r="B401" s="22" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D401" s="4" t="s">
         <v>35</v>
@@ -60888,15 +60887,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="402" spans="1:45">
+    <row r="402" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A402" s="4" t="s">
         <v>697</v>
       </c>
       <c r="B402" s="22" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D402" t="s">
         <v>35</v>
@@ -61025,15 +61024,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="403" spans="1:45">
+    <row r="403" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A403" s="7" t="s">
         <v>731</v>
       </c>
       <c r="B403" s="22" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D403" t="s">
         <v>35</v>
@@ -61162,15 +61161,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="404" spans="1:45">
+    <row r="404" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A404" s="3" t="s">
         <v>438</v>
       </c>
       <c r="B404" s="22" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D404" s="4" t="s">
         <v>35</v>
@@ -61299,15 +61298,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="405" spans="1:45">
+    <row r="405" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A405" s="15" t="s">
         <v>808</v>
       </c>
       <c r="B405" s="22" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D405" t="s">
         <v>35</v>
@@ -61436,15 +61435,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="406" spans="1:45">
+    <row r="406" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A406" s="16" t="s">
         <v>350</v>
       </c>
       <c r="B406" s="22" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D406" s="4" t="s">
         <v>330</v>
@@ -61573,15 +61572,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="407" spans="1:45">
+    <row r="407" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A407" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B407" s="22" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D407" s="4" t="s">
         <v>35</v>
@@ -61710,15 +61709,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="408" spans="1:45">
+    <row r="408" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A408" s="3" t="s">
         <v>432</v>
       </c>
       <c r="B408" s="22" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D408" s="4" t="s">
         <v>35</v>
@@ -61847,15 +61846,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="409" spans="1:45">
+    <row r="409" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A409" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B409" s="14" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D409" s="4" t="s">
         <v>35</v>
@@ -61984,15 +61983,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="410" spans="1:45">
+    <row r="410" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A410" t="s">
         <v>189</v>
       </c>
       <c r="B410" s="14" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D410" s="4" t="s">
         <v>35</v>
@@ -62121,15 +62120,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="411" spans="1:45">
+    <row r="411" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A411" t="s">
         <v>482</v>
       </c>
       <c r="B411" s="22" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D411" t="s">
         <v>35</v>
@@ -62258,15 +62257,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="412" spans="1:45">
+    <row r="412" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A412" t="s">
         <v>92</v>
       </c>
       <c r="B412" s="22" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D412" s="4" t="s">
         <v>35</v>
@@ -62395,15 +62394,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="413" spans="1:45">
+    <row r="413" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A413" s="4" t="s">
         <v>661</v>
       </c>
       <c r="B413" s="22" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D413" s="4" t="s">
         <v>35</v>
@@ -62532,15 +62531,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="414" spans="1:45">
+    <row r="414" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A414" s="10" t="s">
         <v>649</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D414" s="10" t="s">
         <v>35</v>
@@ -62669,15 +62668,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="415" spans="1:45">
+    <row r="415" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A415" t="s">
         <v>514</v>
       </c>
       <c r="B415" s="22" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D415" t="s">
         <v>35</v>
@@ -62806,15 +62805,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="416" spans="1:45">
+    <row r="416" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A416" t="s">
         <v>581</v>
       </c>
       <c r="B416" s="14" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D416" s="4" t="s">
         <v>35</v>
@@ -62943,15 +62942,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="417" spans="1:45">
+    <row r="417" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A417" s="3" t="s">
         <v>597</v>
       </c>
       <c r="B417" s="22" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>886</v>
+        <v>1400</v>
       </c>
       <c r="D417" s="4" t="s">
         <v>35</v>
@@ -63080,15 +63079,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="418" spans="1:45">
+    <row r="418" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A418" s="3" t="s">
         <v>356</v>
       </c>
       <c r="B418" s="22" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="D418" s="4" t="s">
         <v>35</v>
@@ -63218,7 +63217,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AS418" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AS418">
     <sortCondition ref="P1:P418"/>
   </sortState>
@@ -63241,103 +63239,103 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="45.5" customWidth="1"/>
+    <col min="1" max="1" width="45.46484375" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="63.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>884</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>938</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>937</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="C3" t="s">
-        <v>1400</v>
-      </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>940</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>936</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>939</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>938</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>898</v>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>956</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>899</v>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>956</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>904</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -63347,15 +63345,15 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -63365,15 +63363,15 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -63383,15 +63381,15 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -63401,15 +63399,15 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -63419,15 +63417,15 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -63437,15 +63435,15 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -63455,12 +63453,12 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -63471,15 +63469,15 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -63489,15 +63487,15 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -63507,287 +63505,287 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C45" s="2"/>
     </row>
